--- a/biology/Histoire de la zoologie et de la botanique/Theodor_Bilharz/Theodor_Bilharz.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Theodor_Bilharz/Theodor_Bilharz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Theodor Maximilian Bilharz (né à Sigmaringen (principauté de Hohenzollern-Sigmaringen) le 23 mars 1825 - mort au Caire le 9 mai 1862) est un parasitologue allemand formé à l'université de Tübingen. Il a laissé son nom à une parasitose grave, endémique en Égypte, la schistosomiase ou bilharziose.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est en 1851, alors qu'il travaillait à l'hôpital Kasr el Aini au Caire, qu'il découvrit le Distomum haematobium, appelé plus tard Schistosoma haematobium, un ver parasite qui s'installe dans les vaisseaux sanguins des organes internes où ils peuvent survivre de vingt à trente ans[1], mis en évidence durant la construction du canal de Suez.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est en 1851, alors qu'il travaillait à l'hôpital Kasr el Aini au Caire, qu'il découvrit le Distomum haematobium, appelé plus tard Schistosoma haematobium, un ver parasite qui s'installe dans les vaisseaux sanguins des organes internes où ils peuvent survivre de vingt à trente ans, mis en évidence durant la construction du canal de Suez.
 Il mourut du typhus, contracté lors d'une expédition à Massaoua avec le duc de Saxe-Cobourg et Gotha.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1960, le professeur Dr. Ahmed Hafez Mousa décide de créer un institut de recherche sur les médecines tropicales. Deux ans plus tard, le Theodor Bilharz Research Institute (en) (TBRI) est inauguré à Gizeh, devenant un des plus célèbres hôpitaux du monde spécialisé dans la lutte contre les maladies endémiques, notamment la bilharziose et ses conséquences, les maladies parasitaires et virales qui l'accompagnent.
 </t>
